--- a/biology/Médecine/Muscle_scalène_postérieur/Muscle_scalène_postérieur.xlsx
+++ b/biology/Médecine/Muscle_scalène_postérieur/Muscle_scalène_postérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne_post%C3%A9rieur</t>
+          <t>Muscle_scalène_postérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle scalène postérieur (ou anciennement muscle scalène dorsal ou muscle scalène supracostal ou muscle scalène transcostal) (musculus scalenus posterior en latin)[1] est un muscle situé sur le côté du cou, derrière le muscle scalène moyen.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle scalène postérieur (ou anciennement muscle scalène dorsal ou muscle scalène supracostal ou muscle scalène transcostal) (musculus scalenus posterior en latin) est un muscle situé sur le côté du cou, derrière le muscle scalène moyen.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne_post%C3%A9rieur</t>
+          <t>Muscle_scalène_postérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Insertions crâniales
-Tubercule postérieur des processus transverses des vertèbres C4-C6.
-Trajet
-Le muscle descend en dehors et légèrement en avant.
-Insertion caudale
-Face externe et bord supérieur de la 2e côte.
+          <t>Insertions crâniales</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tubercule postérieur des processus transverses des vertèbres C4-C6.
 </t>
         </is>
       </c>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne_post%C3%A9rieur</t>
+          <t>Muscle_scalène_postérieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Innervation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ils sont innervés par le plexus cervical par les branches cervicales de C5 à C7.
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle descend en dehors et légèrement en avant.
 </t>
         </is>
       </c>
@@ -560,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne_post%C3%A9rieur</t>
+          <t>Muscle_scalène_postérieur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vascularisation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est vascularisé par une branche de l'artère thyroïdienne inférieure.
+          <t>Insertion caudale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Face externe et bord supérieur de la 2e côte.
 </t>
         </is>
       </c>
@@ -591,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne_post%C3%A9rieur</t>
+          <t>Muscle_scalène_postérieur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +631,78 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont innervés par le plexus cervical par les branches cervicales de C5 à C7.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_scalène_postérieur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_scal%C3%A8ne_post%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est vascularisé par une branche de l'artère thyroïdienne inférieure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_scalène_postérieur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_scal%C3%A8ne_post%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est :
 élévateur de la deuxième côte en prenant appui sur le cou, il est donc inspirateur ;
@@ -621,31 +714,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Muscle_scal%C3%A8ne_post%C3%A9rieur</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muscle_scalène_postérieur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Muscle_scal%C3%A8ne_post%C3%A9rieur</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les scalènes sont disposés en deux-plans : l'antérieur en avant, les deux autres en arrière. Ils délimitent ainsi avec les côtes
 le triangle interscalénique par où passent les branches du plexus brachial et l'artère sous-clavière.
